--- a/Switches/KMX Switch/Electrical/BOM_V2.0.1 KMX Switch_V2.0.1 PCB_2024-05-28.xlsx
+++ b/Switches/KMX Switch/Electrical/BOM_V2.0.1 KMX Switch_V2.0.1 PCB_2024-05-28.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>No.</t>
   </si>
@@ -49,22 +49,22 @@
     <t>2</t>
   </si>
   <si>
-    <t>1N5817</t>
-  </si>
-  <si>
-    <t>D2,D3</t>
-  </si>
-  <si>
-    <t>DO-41_BD2.4-L4.7-P8.70-D0.9-RD</t>
+    <t>SS14</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>SMA_L4.2-W2.6-LS5.3-RD</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>YANGJIE(扬杰)</t>
-  </si>
-  <si>
-    <t>C698892</t>
+    <t>MDD</t>
+  </si>
+  <si>
+    <t>C2480</t>
   </si>
   <si>
     <t>LCSC</t>
@@ -73,27 +73,27 @@
     <t>MHK1560CRBTD</t>
   </si>
   <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>LED-TH_MHK1560UGBTD</t>
+  </si>
+  <si>
+    <t>MEIHUA(美华)</t>
+  </si>
+  <si>
+    <t>C7470835</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>MHK1560UGBTD</t>
+  </si>
+  <si>
     <t>DS2</t>
   </si>
   <si>
-    <t>LED-TH_MHK1560UGBTD</t>
-  </si>
-  <si>
-    <t>MEIHUA(美华)</t>
-  </si>
-  <si>
-    <t>C7470835</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>MHK1560UGBTD</t>
-  </si>
-  <si>
-    <t>DS3</t>
-  </si>
-  <si>
     <t>C7470833</t>
   </si>
   <si>
@@ -121,10 +121,28 @@
     <t>5</t>
   </si>
   <si>
+    <t>D-SUB-DR-9PCM-CB</t>
+  </si>
+  <si>
+    <t>J1,J3</t>
+  </si>
+  <si>
+    <t>DB9-TH_ID09S33E4GV00LF</t>
+  </si>
+  <si>
+    <t>XUNPU(讯普)</t>
+  </si>
+  <si>
+    <t>C19077337</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>U-USBBR04P-F001</t>
   </si>
   <si>
-    <t>J1</t>
+    <t>J2</t>
   </si>
   <si>
     <t>USB-B-TH_U241-041N-1BR85-1</t>
@@ -136,24 +154,6 @@
     <t>C386743</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>D-SUB-DR-9PCM-CB</t>
-  </si>
-  <si>
-    <t>J2,J3</t>
-  </si>
-  <si>
-    <t>DB9-TH_ID09S33E4GV00LF</t>
-  </si>
-  <si>
-    <t>XUNPU(讯普)</t>
-  </si>
-  <si>
-    <t>C19077337</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -193,19 +193,19 @@
     <t>9</t>
   </si>
   <si>
-    <t>2SC1815L-GR-T92-B</t>
+    <t>D882 Y档160~320</t>
   </si>
   <si>
     <t>Q1</t>
   </si>
   <si>
-    <t>TO-92-3_L4.9-W3.7-P2.54-L</t>
-  </si>
-  <si>
-    <t>UTC(友顺)</t>
-  </si>
-  <si>
-    <t>C73309</t>
+    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
+  </si>
+  <si>
+    <t>CJ(江苏长电/长晶)</t>
+  </si>
+  <si>
+    <t>C9634</t>
   </si>
   <si>
     <t>10</t>
@@ -214,19 +214,19 @@
     <t>1kΩ</t>
   </si>
   <si>
-    <t>R5,R6,R7</t>
-  </si>
-  <si>
-    <t>RES-TH_BD2.3-L6.5-P10.50-D0.5</t>
-  </si>
-  <si>
-    <t>MF1/4W-1KΩ±1%T52</t>
-  </si>
-  <si>
-    <t>华星机电</t>
-  </si>
-  <si>
-    <t>C713997</t>
+    <t>R1,R3,R4</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>0805W8F1001T5E</t>
+  </si>
+  <si>
+    <t>UNI-ROYAL(厚声)</t>
+  </si>
+  <si>
+    <t>C17513</t>
   </si>
   <si>
     <t>11</t>
@@ -235,34 +235,31 @@
     <t>10kΩ</t>
   </si>
   <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>RES-TH_BD2.7-L6.2-P10.20-D0.4</t>
-  </si>
-  <si>
-    <t>CR1/4W-10K±5%-ST26</t>
-  </si>
-  <si>
-    <t>VO(翔胜)</t>
-  </si>
-  <si>
-    <t>C2894599</t>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>0805W8F1002T5E</t>
+  </si>
+  <si>
+    <t>C17414</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>DS18B20+T&amp;R</t>
-  </si>
-  <si>
-    <t>U15</t>
+    <t>DS18B20Z+T&amp;R</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOIC-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
   </si>
   <si>
     <t>ADI(亚德诺)/MAXIM(美信)</t>
   </si>
   <si>
-    <t>C880672</t>
+    <t>C97190</t>
   </si>
 </sst>
 </file>
@@ -813,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -845,7 +842,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
@@ -1014,19 +1011,19 @@
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
       </c>
       <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
         <v>76</v>
-      </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
@@ -1034,31 +1031,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>62</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
         <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>83</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
